--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>797093.3955270714</v>
+        <v>794392.1788756144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="C2" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.2254363169657</v>
+        <v>72.36698404190665</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.6619765928418</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>114.4442329887943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>72.43306831227233</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.75392192072621</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897776</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154312</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863692</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>283.7621941964298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.7768212573686</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951732</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.36018225871382</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.64583588729099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>87.6033676648869</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643564</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10.06207011151478</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>195.1605983473584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>85.22557989120801</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915341</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
-        <v>26.42410927682846</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.72577540654819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.53779970793278</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740389</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922623</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>139.1886739667956</v>
+        <v>252.1376433238241</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986206</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>100.442987718435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795654</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.95257707283418</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.05806357631779</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E28" t="n">
-        <v>36.43062059490515</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>162.74019138191</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.3569086801644</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833892</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012159</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>258.0279804307069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>258.5202580022768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>147.6895341487368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576178</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>80.67842139643686</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4307,10 +4307,10 @@
         <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
         <v>41.00642392276842</v>
@@ -4328,16 +4328,16 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298172</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298172</v>
+        <v>380.48204416864</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298172</v>
+        <v>380.48204416864</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298172</v>
+        <v>380.48204416864</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571245</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.1158302633464</v>
+        <v>197.1648447922849</v>
       </c>
       <c r="C3" t="n">
-        <v>268.1158302633464</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>268.1158302633464</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4410,49 +4410,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110956</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>591.5675658110956</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="X3" t="n">
-        <v>383.7160656055628</v>
+        <v>365.3801818123529</v>
       </c>
       <c r="Y3" t="n">
-        <v>268.1158302633464</v>
+        <v>365.3801818123529</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328.6421545640785</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7059716361716</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7059716361716</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7059716361716</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>981.690804539083</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>774.9037699495943</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>549.4347337076086</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>549.4347337076086</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>549.4347337076086</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="W4" t="n">
-        <v>549.4347337076086</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>549.4347337076086</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>328.6421545640785</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.7539369411954</v>
+        <v>1136.34520565477</v>
       </c>
       <c r="C5" t="n">
-        <v>508.7539369411954</v>
+        <v>816.5910675842879</v>
       </c>
       <c r="D5" t="n">
-        <v>150.4882383344449</v>
+        <v>816.5910675842879</v>
       </c>
       <c r="E5" t="n">
-        <v>150.4882383344449</v>
+        <v>430.8028149860437</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852414</v>
+        <v>43.23945355631523</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523448</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275118</v>
+        <v>93.7664115927513</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245559</v>
+        <v>239.0325989245561</v>
       </c>
       <c r="L5" t="n">
-        <v>456.149911482563</v>
+        <v>456.1499114825634</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748856</v>
+        <v>729.4041931748861</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202379</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
         <v>1264.916654798413</v>
@@ -4586,31 +4586,31 @@
         <v>1446.53548218941</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261724</v>
+        <v>1389.996673518252</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261724</v>
+        <v>1389.996673518252</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261724</v>
+        <v>1136.34520565477</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261724</v>
+        <v>1136.34520565477</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.98225599161</v>
+        <v>1136.34520565477</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.98225599161</v>
+        <v>1136.34520565477</v>
       </c>
       <c r="Y5" t="n">
-        <v>895.3537770053172</v>
+        <v>1136.34520565477</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.3587979688443</v>
+        <v>264.6115818588798</v>
       </c>
       <c r="C6" t="n">
-        <v>449.3587979688443</v>
+        <v>264.6115818588798</v>
       </c>
       <c r="D6" t="n">
-        <v>449.3587979688443</v>
+        <v>264.6115818588798</v>
       </c>
       <c r="E6" t="n">
-        <v>449.3587979688443</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8242399957293</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878733</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523448</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563419</v>
+        <v>49.44206107563426</v>
       </c>
       <c r="K6" t="n">
-        <v>203.6045598042178</v>
+        <v>159.6385680169447</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414945</v>
+        <v>354.1339118482968</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122403</v>
+        <v>600.4576725190427</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584463</v>
+        <v>889.0545187259723</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749981</v>
+        <v>1111.317965891491</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948669</v>
+        <v>1270.370911090179</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261724</v>
+        <v>1530.346686757973</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655819</v>
+        <v>1385.878273152068</v>
       </c>
       <c r="T6" t="n">
-        <v>1390.282497655819</v>
+        <v>1189.973630703753</v>
       </c>
       <c r="U6" t="n">
-        <v>1162.161413976423</v>
+        <v>961.8525470243569</v>
       </c>
       <c r="V6" t="n">
-        <v>927.0093057446807</v>
+        <v>726.7004387926142</v>
       </c>
       <c r="W6" t="n">
-        <v>672.7719490164791</v>
+        <v>472.4630820644126</v>
       </c>
       <c r="X6" t="n">
-        <v>672.7719490164791</v>
+        <v>264.6115818588798</v>
       </c>
       <c r="Y6" t="n">
-        <v>617.5741349889124</v>
+        <v>264.6115818588798</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469.3995093676805</v>
+        <v>236.9104562721281</v>
       </c>
       <c r="C7" t="n">
-        <v>300.4633264397735</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>150.3466870274378</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>150.3466870274378</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>150.3466870274378</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274378</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274378</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709667</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523448</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223267</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830389</v>
+        <v>375.138765583039</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388152</v>
+        <v>615.0688576388154</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974824</v>
+        <v>854.7285647974827</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891672</v>
@@ -4747,28 +4747,28 @@
         <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402741</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402741</v>
+        <v>910.3578444371309</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792858</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="U7" t="n">
-        <v>889.2012322792858</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="V7" t="n">
-        <v>879.0375250959376</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="W7" t="n">
-        <v>879.0375250959376</v>
+        <v>685.6925863136755</v>
       </c>
       <c r="X7" t="n">
-        <v>651.0479741979202</v>
+        <v>457.7030354156582</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.0479741979202</v>
+        <v>236.9104562721281</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1831.290404920692</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>1831.290404920692</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.290404920692</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.290404920692</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1831.290404920692</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380235</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694952</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425661</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>937.5665200750353</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1447.776269255526</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1447.776269255526</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1447.776269255526</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1447.776269255526</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1158.359099218565</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>1158.359099218565</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>937.5665200750353</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016.155803409789</v>
+        <v>1485.490329133571</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469377</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>805.8206670501952</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747751</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592064</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592064</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706885</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656948</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.749829464059</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796032</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796032</v>
+        <v>3776.999350345376</v>
       </c>
       <c r="T11" t="n">
-        <v>3850.192276324488</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3850.192276324488</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>3519.129388980917</v>
+        <v>2988.463914704698</v>
       </c>
       <c r="W11" t="n">
-        <v>3166.360733710803</v>
+        <v>2635.695259434584</v>
       </c>
       <c r="X11" t="n">
-        <v>2792.894975449723</v>
+        <v>2262.229501173504</v>
       </c>
       <c r="Y11" t="n">
-        <v>2402.755643473911</v>
+        <v>1872.090169197692</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046649</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626159</v>
+        <v>889.4740370626168</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.39676518007</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881279</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.1667406832003</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>634.2305577552934</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="D13" t="n">
-        <v>484.1139183429576</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2008247605645</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717527</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159207</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344802</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742806</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177247</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126698</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.695454920811</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.27828488385</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>1083.27828488385</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.4857057403195</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.66716026352</v>
+        <v>513.8536007400754</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356129</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232772</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E16" t="n">
-        <v>631.701244340884</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429737</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342028</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305067</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.45973940705</v>
+        <v>916.2946447138452</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.66716026352</v>
+        <v>695.5020655703152</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.928827395874</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679745</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556388</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261137</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.829167345075</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.974332999979</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.37286802292</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.297641367118</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.613153161231</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.19598312427</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>965.2064322262529</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263198</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>680.4481746984129</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036841</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327653</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048584</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925227</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663005</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246299</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.931364336516</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.138785192986</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835329</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.428221820187</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820187</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.021500885209</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741679</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,7 +7360,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.569791909146</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7403,40 +7403,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679669</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261135</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,28 +7634,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,16 +7664,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770322</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491253</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367896</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.919235607272</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637011</v>
+        <v>34.43939438637005</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.41009271441737</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>187.2277845514392</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000718</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878358</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.33029638072763</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>175.5147110776207</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.1062047753891</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>208.1718556811044</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382458897</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>112.9489693570324</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>45.99097492813412</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537252939</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>48.42266963728748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.7739166056195</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295035</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E28" t="n">
-        <v>110.003342051664</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.506629716717867</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.47507150177286</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303785</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856545</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>28.15649395853718</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>28.00274033431424</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9259388694755444</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295032</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>65.75554125013231</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>905351.0957812951</v>
+        <v>905351.0957812954</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996683.8561654182</v>
+        <v>996683.8561654179</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996683.8561654181</v>
+        <v>996683.8561654179</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654177</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>996683.8561654181</v>
+        <v>996683.8561654179</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654177</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787485</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440576</v>
+        <v>384609.3532440578</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372535</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="H2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="H2" t="n">
-        <v>423751.9648372531</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372532</v>
@@ -26347,13 +26347,13 @@
         <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372533</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657068</v>
+        <v>132804.2190657071</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929378</v>
+        <v>265413.0723929374</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545762</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.26877043</v>
+        <v>189308.2687704295</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417425</v>
+        <v>30877.42926417424</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049566</v>
+        <v>65018.34502049562</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273046</v>
+        <v>81897.40371273072</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>49839.57413202371</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>211562.7951796034</v>
       </c>
       <c r="D4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="E4" t="n">
         <v>8621.837832097743</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744373</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744382</v>
+        <v>8727.2563917443</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744299</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744346</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744202</v>
+        <v>8727.256391744297</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>72593.65038667494</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738558</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559737.4216591</v>
+        <v>-559737.4216590999</v>
       </c>
       <c r="C6" t="n">
-        <v>14086.26454676324</v>
+        <v>14086.26454676312</v>
       </c>
       <c r="D6" t="n">
-        <v>-62826.0526310171</v>
+        <v>-62826.05263101656</v>
       </c>
       <c r="E6" t="n">
-        <v>-22727.12701000187</v>
+        <v>-22948.2583239774</v>
       </c>
       <c r="F6" t="n">
-        <v>124593.909851172</v>
+        <v>124559.1719257368</v>
       </c>
       <c r="G6" t="n">
-        <v>313902.1786216015</v>
+        <v>313867.4406961661</v>
       </c>
       <c r="H6" t="n">
-        <v>313902.1786216017</v>
+        <v>313867.440696166</v>
       </c>
       <c r="I6" t="n">
-        <v>313902.1786216018</v>
+        <v>313867.4406961662</v>
       </c>
       <c r="J6" t="n">
-        <v>244903.0242024877</v>
+        <v>244868.2862770518</v>
       </c>
       <c r="K6" t="n">
-        <v>283024.7493574276</v>
+        <v>282990.0114319917</v>
       </c>
       <c r="L6" t="n">
-        <v>248883.8336011061</v>
+        <v>248849.0956756704</v>
       </c>
       <c r="M6" t="n">
-        <v>232004.7749088713</v>
+        <v>231970.0369834353</v>
       </c>
       <c r="N6" t="n">
-        <v>264062.6044895781</v>
+        <v>264027.8665641423</v>
       </c>
       <c r="O6" t="n">
-        <v>313902.1786216018</v>
+        <v>313867.4406961659</v>
       </c>
       <c r="P6" t="n">
-        <v>313902.1786216019</v>
+        <v>313867.4406961661</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695747</v>
+        <v>717.3319511695749</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815431</v>
+        <v>383.6877278154312</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490079</v>
+        <v>969.2208239490087</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000964</v>
+        <v>103.2769374000966</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479645</v>
+        <v>216.7329409479642</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974103</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>165.7342631267238</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139248</v>
+        <v>119.973847813925</v>
       </c>
       <c r="D4" t="n">
-        <v>256.897104284608</v>
+        <v>256.8971042846076</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848969</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139248</v>
+        <v>119.973847813925</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846077</v>
+        <v>256.8971042846076</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848969</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.4874641506397</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139248</v>
+        <v>119.973847813925</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284608</v>
+        <v>256.8971042846076</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848969</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.0125023390879</v>
+        <v>313.870954614147</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954739</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>91.23846278851011</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>55.0715345713916</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>208.7690764158648</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508122993</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.18831792628026</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863689</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.4757444596238</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>61.86825919803235</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713849</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>151.0368598900134</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>79.64345343374093</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643536</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>242.0755732123132</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5224432733246</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>109.4368804705294</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.536993168992922e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-5.970305703707189e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30703,13 +30703,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365122</v>
+        <v>2.883746537365123</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579057</v>
+        <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
         <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756933</v>
+        <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>366.823373602359</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952469</v>
+        <v>455.0768316952471</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791139</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284025</v>
+        <v>514.5541040284028</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974781</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562766</v>
+        <v>414.6863567562767</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.412183886888</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
-        <v>181.146143427762</v>
+        <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>65.7133742202078</v>
+        <v>65.71337422020781</v>
       </c>
       <c r="T5" t="n">
         <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892097</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,40 +31361,40 @@
         <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189776</v>
+        <v>53.12316808189777</v>
       </c>
       <c r="J6" t="n">
         <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453796</v>
+        <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438661</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874182</v>
+        <v>390.9459133874183</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189115</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348672</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190655</v>
+        <v>294.6339480190657</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739557</v>
+        <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392928</v>
+        <v>95.79765189392931</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399195</v>
+        <v>28.65944163399196</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989047</v>
+        <v>6.219132670989048</v>
       </c>
       <c r="U6" t="n">
         <v>0.1015092383730531</v>
@@ -31440,13 +31440,13 @@
         <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572055</v>
+        <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402921</v>
+        <v>91.45394400402924</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401174</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
         <v>192.3155201545447</v>
@@ -31455,10 +31455,10 @@
         <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022534</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
         <v>156.4489225960659</v>
@@ -31467,16 +31467,16 @@
         <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565107</v>
+        <v>58.16268574565109</v>
       </c>
       <c r="S7" t="n">
         <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060655</v>
+        <v>5.526983886060657</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864676</v>
+        <v>0.07055724109864679</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598377</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747743</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>455.1872946467191</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.56323703405</v>
+        <v>267.539807883333</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770654</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>202.2352659288688</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>151.9914336104071</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>746.4857620875795</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900699</v>
+        <v>63.70847814900708</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573784</v>
+        <v>146.7335225573785</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252597</v>
+        <v>219.3104167252598</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518412</v>
+        <v>276.0144259518413</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318116</v>
+        <v>285.1410404318119</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757914</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010071</v>
+        <v>183.4533610010072</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243856</v>
+        <v>89.10649401243867</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959567</v>
+        <v>18.93640691959573</v>
       </c>
       <c r="K6" t="n">
-        <v>155.719695685438</v>
+        <v>111.3096029710207</v>
       </c>
       <c r="L6" t="n">
-        <v>383.687727815431</v>
+        <v>196.459943263992</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653998</v>
+        <v>248.8118794654</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355782</v>
+        <v>291.5119658655855</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904227</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047353</v>
+        <v>160.6595406047354</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793419</v>
+        <v>267.0505052237834</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,22 +35097,22 @@
         <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148608</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.353628339168</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>242.080512281482</v>
+        <v>242.0805122814821</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809995</v>
+        <v>207.4224586809996</v>
       </c>
       <c r="P7" t="n">
         <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491139</v>
+        <v>22.15508137491143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313206</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949001</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>313.0532607247007</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507167</v>
+        <v>136.1980957999997</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.1933770937321</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>68.26085851453861</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,10 +35969,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>20.64972152707382</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36045,7 +36045,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191358</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>615.1440500042462</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394598</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
